--- a/data/trans_dic/P08_2_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P08_2_R-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2002161040645994</v>
+        <v>0.2014464293252733</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.143492737099188</v>
+        <v>0.1425196779518947</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1442030627978375</v>
+        <v>0.1469623787525899</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2152050679533408</v>
+        <v>0.213871101444945</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3140111008954569</v>
+        <v>0.3172666775223755</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2498656775945504</v>
+        <v>0.2499329325601391</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2452489340316216</v>
+        <v>0.2446043519341341</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3063553507800303</v>
+        <v>0.3048742508296027</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2784390061446383</v>
+        <v>0.2811129682920367</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2050088796646696</v>
+        <v>0.2068366725584416</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2054450641182485</v>
+        <v>0.2045429667229549</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2727415243535819</v>
+        <v>0.2741642483940834</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2687764683714484</v>
+        <v>0.27101471374655</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1934034953818489</v>
+        <v>0.189513413933956</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1878066270320902</v>
+        <v>0.1910721882937781</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2943793367148752</v>
+        <v>0.2921472880314835</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3791633229481766</v>
+        <v>0.3779500168627906</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3062112915498787</v>
+        <v>0.3058923867310085</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.301477457493021</v>
+        <v>0.2984136614053475</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.368302839068327</v>
+        <v>0.3664315430584726</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3280451038913842</v>
+        <v>0.3281340816845373</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2414628773948833</v>
+        <v>0.2436223638166727</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2432334020360502</v>
+        <v>0.2395830389767699</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3241403590234088</v>
+        <v>0.3246986730857686</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.127783369391006</v>
+        <v>0.1271376790239296</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1411343341880904</v>
+        <v>0.1398596419755963</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1267252445912861</v>
+        <v>0.1240753418280646</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1547214190820243</v>
+        <v>0.152770532563519</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1876293304296584</v>
+        <v>0.1892376369234048</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.248819676685277</v>
+        <v>0.2469318743381382</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1948242631962017</v>
+        <v>0.1957030515250432</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2393734015424561</v>
+        <v>0.2383452366240199</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1622751952790981</v>
+        <v>0.1633299739846346</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2050159339527021</v>
+        <v>0.2041794501955056</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1697858941520756</v>
+        <v>0.168532189238033</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2051960213487337</v>
+        <v>0.2050739901968179</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1685461964795086</v>
+        <v>0.1697658130374512</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1907411268735667</v>
+        <v>0.1890038188654115</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1719557190759368</v>
+        <v>0.1734869452043877</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2045689542958877</v>
+        <v>0.1996982653689284</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2354540913596988</v>
+        <v>0.2385401510939676</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3049235944468116</v>
+        <v>0.3033914680322247</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2496437503757774</v>
+        <v>0.2505429137187057</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2832494230023969</v>
+        <v>0.2824250563126242</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1950260959404383</v>
+        <v>0.1959663986362593</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2425168855360834</v>
+        <v>0.2432164842378475</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.205503249311056</v>
+        <v>0.2054307860486988</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2380928471545243</v>
+        <v>0.2376293667769234</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2138774671887708</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1848647259375081</v>
+        <v>0.1848647259375082</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1423037442881702</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09046423778672211</v>
+        <v>0.09103152732403148</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1216950904694762</v>
+        <v>0.1221159015570176</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09420885637967735</v>
+        <v>0.09377046833608757</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09751938402364571</v>
+        <v>0.09771082290736925</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1573871252752489</v>
+        <v>0.1584181567332086</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2043807523283725</v>
+        <v>0.2020888053456431</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1822586880156772</v>
+        <v>0.1847372839195971</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1681223738753295</v>
+        <v>0.1661435797116937</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1276497134376465</v>
+        <v>0.1283109039327533</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.168890637573238</v>
+        <v>0.1712748857538466</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1453656919254885</v>
+        <v>0.1429734986217606</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1366174874297085</v>
+        <v>0.1374662323264837</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1258904543409421</v>
+        <v>0.1283320750362191</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1694936887234516</v>
+        <v>0.1699209156175651</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.136837555684489</v>
+        <v>0.1358235044856165</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1330293652243226</v>
+        <v>0.136539871634065</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.206080228984657</v>
+        <v>0.2061981150431842</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2602595277954644</v>
+        <v>0.2600060561176296</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2472239939380986</v>
+        <v>0.2503093376469744</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2047163015561668</v>
+        <v>0.2034027677485764</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.157354736005886</v>
+        <v>0.157362265766172</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2091063431907194</v>
+        <v>0.208923022024803</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1840899890291413</v>
+        <v>0.1814268663619011</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1635352823419778</v>
+        <v>0.1641216365144224</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1385946251250277</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1352432996818046</v>
+        <v>0.1352432996818045</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04324229781277773</v>
+        <v>0.0454655298639236</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1010068426480443</v>
+        <v>0.10160178431145</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1043532316246254</v>
+        <v>0.1058405903876335</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09121446041003002</v>
+        <v>0.09313271409704559</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08695904931877788</v>
+        <v>0.09080079921260903</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1718502792877743</v>
+        <v>0.1735165425057313</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1106314536808464</v>
+        <v>0.1122863967753049</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1438429107977472</v>
+        <v>0.1441501508042106</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07192261319720018</v>
+        <v>0.07207800675588079</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1442736764420752</v>
+        <v>0.1464293069214821</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1145568552487095</v>
+        <v>0.1163532437279291</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1217513643378944</v>
+        <v>0.1225855911256812</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09075426843647594</v>
+        <v>0.09197652890213076</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1660321958910498</v>
+        <v>0.1645628376768375</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1680125802574755</v>
+        <v>0.1704119273312261</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1314818418079975</v>
+        <v>0.1306796216373237</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1602795756492899</v>
+        <v>0.1633358291279755</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2465878426836869</v>
+        <v>0.2502784395814986</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1769324516277853</v>
+        <v>0.1794039572132926</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1834170741059749</v>
+        <v>0.1829852808322591</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1132266469779234</v>
+        <v>0.1114481231272452</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1941321148124497</v>
+        <v>0.1971582675244418</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1621054021074434</v>
+        <v>0.162761936550226</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1478771827698543</v>
+        <v>0.1501584019262917</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2273510959245214</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2271556222006824</v>
+        <v>0.2271556222006825</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1849165553191787</v>
@@ -1241,7 +1241,7 @@
         <v>0.1866783278357858</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1899010094392973</v>
+        <v>0.1899010094392972</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1269232249782626</v>
+        <v>0.1253133717704489</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1432331027764387</v>
+        <v>0.1418899227216206</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.132113142541148</v>
+        <v>0.1317238876462166</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1384995501804302</v>
+        <v>0.1387078374001708</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2162707643178363</v>
+        <v>0.2157395345054918</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2423424524394979</v>
+        <v>0.242359534354102</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2128882556965096</v>
+        <v>0.2134475257706474</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2167677342734557</v>
+        <v>0.2157054899900229</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1759095996532145</v>
+        <v>0.1746497021339075</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1967169263874049</v>
+        <v>0.1965162702225865</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1762416971522877</v>
+        <v>0.1774196210662657</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1814608175420634</v>
+        <v>0.181872159913135</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1516145082579822</v>
+        <v>0.1493026077889073</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1683906006252183</v>
+        <v>0.1688081994348949</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1559716544206772</v>
+        <v>0.156304990709666</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1620029603876749</v>
+        <v>0.1625836484863063</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2460073955378518</v>
+        <v>0.2445617474151459</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.271811917836781</v>
+        <v>0.2717663934762842</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2430920850323511</v>
+        <v>0.2425657011321687</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2377589727968477</v>
+        <v>0.238342148878028</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1942854774351341</v>
+        <v>0.1956614018574155</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2171345757275273</v>
+        <v>0.2164495946258609</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1968684806153582</v>
+        <v>0.1970469938309656</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1977504609964502</v>
+        <v>0.1983150376614542</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>116954</v>
+        <v>117673</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>149797</v>
+        <v>148781</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>162661</v>
+        <v>165773</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>107331</v>
+        <v>106666</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>289623</v>
+        <v>292626</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>279832</v>
+        <v>279907</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>308906</v>
+        <v>308094</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>191037</v>
+        <v>190113</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>419461</v>
+        <v>423489</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>443611</v>
+        <v>447566</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>490512</v>
+        <v>488358</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>306103</v>
+        <v>307700</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>157003</v>
+        <v>158311</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>201901</v>
+        <v>197840</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>211845</v>
+        <v>215529</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>146818</v>
+        <v>145705</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>349715</v>
+        <v>348596</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>342935</v>
+        <v>342577</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>379729</v>
+        <v>375870</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>229666</v>
+        <v>228499</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>494191</v>
+        <v>494325</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>522493</v>
+        <v>527165</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>580734</v>
+        <v>572018</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>363789</v>
+        <v>364416</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>137737</v>
+        <v>137041</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>137614</v>
+        <v>136371</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>115171</v>
+        <v>112763</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>148554</v>
+        <v>146681</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>198425</v>
+        <v>200126</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>272003</v>
+        <v>269940</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>196086</v>
+        <v>196970</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>267105</v>
+        <v>265957</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>346528</v>
+        <v>348780</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>424020</v>
+        <v>422290</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>325191</v>
+        <v>322790</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>425984</v>
+        <v>425731</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>181675</v>
+        <v>182990</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>185983</v>
+        <v>184289</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>156278</v>
+        <v>157669</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>196414</v>
+        <v>191738</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>249002</v>
+        <v>252265</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>333335</v>
+        <v>331660</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>251260</v>
+        <v>252165</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>316064</v>
+        <v>315144</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>416465</v>
+        <v>418473</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>501581</v>
+        <v>503028</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>393600</v>
+        <v>393462</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>494277</v>
+        <v>493315</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>101464</v>
+        <v>102100</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>107714</v>
+        <v>108087</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>77605</v>
+        <v>77244</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>102052</v>
+        <v>102252</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>156433</v>
+        <v>157458</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>178996</v>
+        <v>176989</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>140532</v>
+        <v>142443</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>176035</v>
+        <v>173963</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>270047</v>
+        <v>271446</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>297401</v>
+        <v>301600</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>231832</v>
+        <v>228017</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>286015</v>
+        <v>287792</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>141198</v>
+        <v>143936</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>150021</v>
+        <v>150400</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>112721</v>
+        <v>111886</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>139212</v>
+        <v>142886</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>204831</v>
+        <v>204949</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>227934</v>
+        <v>227712</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>190624</v>
+        <v>193003</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>214351</v>
+        <v>212976</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>332889</v>
+        <v>332905</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>368218</v>
+        <v>367895</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>293590</v>
+        <v>289343</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>342368</v>
+        <v>343596</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>19338</v>
+        <v>20332</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>50616</v>
+        <v>50914</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>52876</v>
+        <v>53630</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>88939</v>
+        <v>90810</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>29667</v>
+        <v>30977</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>77803</v>
+        <v>78557</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>54176</v>
+        <v>54986</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>130855</v>
+        <v>131135</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>56701</v>
+        <v>56823</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>137616</v>
+        <v>139672</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>114144</v>
+        <v>115934</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>229473</v>
+        <v>231045</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>40585</v>
+        <v>41132</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>83202</v>
+        <v>82465</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>85132</v>
+        <v>86348</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>128202</v>
+        <v>127420</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>54681</v>
+        <v>55723</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>111639</v>
+        <v>113310</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>86643</v>
+        <v>87854</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>166856</v>
+        <v>166463</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>89263</v>
+        <v>87861</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>185174</v>
+        <v>188060</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>161521</v>
+        <v>162176</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>278714</v>
+        <v>283013</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>410067</v>
+        <v>404866</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>487741</v>
+        <v>483167</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>444862</v>
+        <v>443551</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>482035</v>
+        <v>482760</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>716931</v>
+        <v>715170</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>858289</v>
+        <v>858349</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>750813</v>
+        <v>752785</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>801218</v>
+        <v>797291</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1151469</v>
+        <v>1143222</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1366565</v>
+        <v>1365171</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1215023</v>
+        <v>1223144</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1302274</v>
+        <v>1305226</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>489841</v>
+        <v>482371</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>573408</v>
+        <v>574830</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>525201</v>
+        <v>526323</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>563837</v>
+        <v>565858</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>815507</v>
+        <v>810715</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>962659</v>
+        <v>962497</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>857335</v>
+        <v>855479</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>878806</v>
+        <v>880961</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1271753</v>
+        <v>1280760</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1508403</v>
+        <v>1503645</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1357226</v>
+        <v>1358457</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1419179</v>
+        <v>1423230</v>
       </c>
     </row>
     <row r="24">
